--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_2_part_cs.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_2_part_cs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\adamawa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFED510-2212-48EE-A8AF-9CAA0C36C1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3745B31-92F2-4D53-8F02-70ACD5FFCB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>type</t>
   </si>
@@ -286,22 +286,53 @@
     <t>community</t>
   </si>
   <si>
-    <t>(Adamawa State 2024 Apr) - 2. Participant Form V2</t>
-  </si>
-  <si>
-    <t>ng_oncho_stop_202404_2_part_adam_v2</t>
+    <t>ng_oncho_stop_2411_2_part_cs</t>
+  </si>
+  <si>
+    <t>(Cross River 2024 Nov) - 2. Participant Form</t>
+  </si>
+  <si>
+    <t>bind::db_get</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_1</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_2</t>
+  </si>
+  <si>
+    <t>col_1</t>
+  </si>
+  <si>
+    <t>col_2</t>
+  </si>
+  <si>
+    <t>col_3</t>
+  </si>
+  <si>
+    <t>${p_district}</t>
+  </si>
+  <si>
+    <t>${p_cluster_name}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,39 +437,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,13 +747,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:M5"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -738,10 +771,13 @@
     <col min="11" max="11" width="35.375" style="15" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="36.625" style="15" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="15"/>
+    <col min="14" max="14" width="11" style="15"/>
+    <col min="15" max="15" width="13.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="25.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="18.75">
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="18.75">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -784,8 +820,18 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1">
+      <c r="O1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" s="13" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -813,8 +859,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1">
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+    </row>
+    <row r="3" spans="1:18" s="13" customFormat="1">
       <c r="A3" s="13" t="s">
         <v>59</v>
       </c>
@@ -832,8 +882,14 @@
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1">
+      <c r="O3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="4" spans="1:18" s="13" customFormat="1">
       <c r="A4" s="13" t="s">
         <v>59</v>
       </c>
@@ -852,8 +908,16 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:14" s="13" customFormat="1">
+      <c r="O4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" s="13" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>59</v>
       </c>
@@ -873,8 +937,16 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" s="13" customFormat="1">
+      <c r="O5" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:18" s="13" customFormat="1">
       <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
@@ -892,8 +964,12 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" s="13" customFormat="1">
+      <c r="O6" s="17"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" s="13" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
@@ -914,8 +990,12 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="17"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="15" t="s">
         <v>21</v>
       </c>
@@ -938,7 +1018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18">
       <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
@@ -960,8 +1040,12 @@
       <c r="J9" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
@@ -983,8 +1067,12 @@
       <c r="N10" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:18" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>46</v>
       </c>
@@ -1009,7 +1097,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1">
+    <row r="12" spans="1:18" s="13" customFormat="1">
       <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
@@ -1033,7 +1121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:18">
       <c r="A13" s="13" t="s">
         <v>31</v>
       </c>
@@ -1050,7 +1138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:18">
       <c r="A14" s="13" t="s">
         <v>55</v>
       </c>
@@ -1065,7 +1153,7 @@
       </c>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:18">
       <c r="A15" s="15" t="s">
         <v>59</v>
       </c>
@@ -1077,7 +1165,7 @@
       </c>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:18">
       <c r="A16" s="15" t="s">
         <v>62</v>
       </c>
@@ -1086,7 +1174,7 @@
       </c>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:18">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -1095,14 +1183,20 @@
       </c>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:18">
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:18">
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:18">
       <c r="J20" s="14"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1114,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -1241,7 +1335,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1264,10 +1358,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>80</v>

--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_2_part_cs.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_2_part_cs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3745B31-92F2-4D53-8F02-70ACD5FFCB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95C8D49-D697-436C-BB0F-1AB1FA30D1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
   <si>
     <t>type</t>
   </si>
@@ -190,12 +190,6 @@
     <t>Enter the age in years</t>
   </si>
   <si>
-    <t>. &gt;= 5 and . &lt;= 9</t>
-  </si>
-  <si>
-    <t>Age must be between 5 and 9 years old</t>
-  </si>
-  <si>
     <t>p_sample_collected</t>
   </si>
   <si>
@@ -286,12 +280,6 @@
     <t>community</t>
   </si>
   <si>
-    <t>ng_oncho_stop_2411_2_part_cs</t>
-  </si>
-  <si>
-    <t>(Cross River 2024 Nov) - 2. Participant Form</t>
-  </si>
-  <si>
     <t>bind::db_get</t>
   </si>
   <si>
@@ -314,6 +302,69 @@
   </si>
   <si>
     <t>${p_cluster_name}</t>
+  </si>
+  <si>
+    <t>. &gt;= 20</t>
+  </si>
+  <si>
+    <t>Age must be 20 or old</t>
+  </si>
+  <si>
+    <t>How many years has the respondent lived in the area? (&lt;10 years end survey)</t>
+  </si>
+  <si>
+    <t>p_yrs_in_location</t>
+  </si>
+  <si>
+    <t>p_travel_more_than_15_km</t>
+  </si>
+  <si>
+    <t>. &gt;= 10 and . &lt;= ${p_age_yrs}</t>
+  </si>
+  <si>
+    <t>The value must be 10 or more and not be greater than the age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the respondent took IVM in past 12 months? </t>
+  </si>
+  <si>
+    <t>Doess the respondent travel more than 15km from this community for work each week ?</t>
+  </si>
+  <si>
+    <t>p_ivm_last_12_month</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Yes' and ${p_ivm_last_12_month} = 'Yes'</t>
+  </si>
+  <si>
+    <t>In this village as part of a mass treatment campaign</t>
+  </si>
+  <si>
+    <t>In this village at local clinic or pharmacy</t>
+  </si>
+  <si>
+    <t>In another village as part of a mass treatment campaign</t>
+  </si>
+  <si>
+    <t>In another village at local clinic or pharmacy</t>
+  </si>
+  <si>
+    <t>ivm_place</t>
+  </si>
+  <si>
+    <t>select_one ivm_place</t>
+  </si>
+  <si>
+    <t>p_ivm_location</t>
+  </si>
+  <si>
+    <t>Where he took IVM last past 12 months</t>
+  </si>
+  <si>
+    <t>ng_oncho_stop_2411_2_part_cs_v2_2</t>
+  </si>
+  <si>
+    <t>(Cross River 2024 Nov) - 2. Participant Form V2.2</t>
   </si>
 </sst>
 </file>
@@ -447,13 +498,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -472,6 +517,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,456 +798,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A17:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="21" style="15" customWidth="1"/>
-    <col min="7" max="7" width="37.75" style="15" customWidth="1"/>
-    <col min="8" max="8" width="20.375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="59.5" style="15" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="15" customWidth="1"/>
-    <col min="11" max="11" width="35.375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="36.625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="11" style="15"/>
-    <col min="15" max="15" width="13.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="25.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11" style="15"/>
+    <col min="1" max="1" width="19.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="27.625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="59.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="11" customWidth="1"/>
+    <col min="11" max="11" width="35.375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="36.625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="11" style="11"/>
+    <col min="15" max="15" width="13.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="25.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="18.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" s="9" customFormat="1" ht="18.75">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="12"/>
+    </row>
+    <row r="2" spans="1:18" s="9" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" s="9" customFormat="1">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="O3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="1:18" s="9" customFormat="1">
+      <c r="A4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="O4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" s="9" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="O5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" s="16"/>
-    </row>
-    <row r="2" spans="1:18" s="13" customFormat="1">
-      <c r="A2" s="13" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" s="9" customFormat="1">
+      <c r="A6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" s="9" customFormat="1">
+      <c r="A7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:18" s="9" customFormat="1">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="B12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="F12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-    </row>
-    <row r="3" spans="1:18" s="13" customFormat="1">
-      <c r="A3" s="13" t="s">
+    </row>
+    <row r="13" spans="1:18" s="9" customFormat="1" ht="31.5">
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="F13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="9" customFormat="1" ht="31.5">
+      <c r="A14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="9" customFormat="1">
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="9" customFormat="1" ht="31.5">
+      <c r="A16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="O3" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-    </row>
-    <row r="4" spans="1:18" s="13" customFormat="1">
-      <c r="A4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="O4" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-    </row>
-    <row r="5" spans="1:18" s="13" customFormat="1">
-      <c r="A5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="O5" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" s="13" customFormat="1">
-      <c r="A6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-    </row>
-    <row r="7" spans="1:18" s="13" customFormat="1">
-      <c r="A7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:18" s="13" customFormat="1">
-      <c r="A12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="F12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="15" t="s">
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="J20" s="14"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1206,24 +1335,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="39.625" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="39.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1232,98 +1362,142 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="14"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1334,37 +1508,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="49.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="15"/>
+    <col min="1" max="1" width="49.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
